--- a/Project Gannt Initial.xlsx
+++ b/Project Gannt Initial.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>ACTIVITY</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>Exam Period</t>
+  </si>
+  <si>
+    <t>Spring Break</t>
   </si>
 </sst>
 </file>
@@ -525,7 +528,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -670,11 +673,14 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -698,7 +704,120 @@
     <cellStyle name="Project Headers" xfId="4"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1087,8 +1206,8 @@
   </sheetPr>
   <dimension ref="B1:BO31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AR3" sqref="AR3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1097,7 +1216,8 @@
     <col min="2" max="2" width="24.625" style="2" customWidth="1"/>
     <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
-    <col min="8" max="15" width="2.75" style="1"/>
+    <col min="8" max="8" width="3.625" style="1" customWidth="1"/>
+    <col min="9" max="15" width="2.75" style="1"/>
     <col min="16" max="16" width="2.875" style="1" customWidth="1"/>
     <col min="17" max="17" width="3.25" style="1" customWidth="1"/>
     <col min="18" max="18" width="3.5" style="1" customWidth="1"/>
@@ -1114,6 +1234,9 @@
     <col min="30" max="30" width="3.5" customWidth="1"/>
     <col min="31" max="31" width="3.625" customWidth="1"/>
     <col min="32" max="32" width="4" customWidth="1"/>
+    <col min="33" max="33" width="4.75" customWidth="1"/>
+    <col min="34" max="34" width="3.875" customWidth="1"/>
+    <col min="35" max="35" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:67" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
@@ -1136,7 +1259,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="11">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="39" t="s">
@@ -1214,24 +1337,31 @@
       <c r="P3" s="47"/>
       <c r="Q3" s="47"/>
       <c r="R3" s="47"/>
-      <c r="S3" s="49" t="s">
+      <c r="S3" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="48" t="s">
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="50" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="35"/>
@@ -1315,9 +1445,15 @@
       <c r="AF4" s="20">
         <v>25</v>
       </c>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
+      <c r="AG4" s="3">
+        <v>26</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>27</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>28</v>
+      </c>
       <c r="AJ4" s="3"/>
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
@@ -1455,10 +1591,10 @@
         <v>7</v>
       </c>
       <c r="F7" s="25">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G7" s="26">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
@@ -1548,7 +1684,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
@@ -1590,10 +1726,10 @@
         <v>15</v>
       </c>
       <c r="F10" s="25">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G10" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
@@ -1632,13 +1768,13 @@
         <v>4</v>
       </c>
       <c r="E11" s="25">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F11" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11" s="26">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
@@ -1660,7 +1796,7 @@
       <c r="Y11" s="27"/>
       <c r="Z11" s="27"/>
       <c r="AA11" s="27"/>
-      <c r="AB11" s="28"/>
+      <c r="AB11" s="27"/>
       <c r="AC11" s="28"/>
       <c r="AD11" s="28"/>
       <c r="AE11" s="28"/>
@@ -1677,13 +1813,13 @@
         <v>5</v>
       </c>
       <c r="E12" s="25">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F12" s="25">
         <v>5</v>
       </c>
       <c r="G12" s="26">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
@@ -1722,13 +1858,13 @@
         <v>5</v>
       </c>
       <c r="E13" s="25">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F13" s="25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13" s="26">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
@@ -1764,16 +1900,16 @@
         <v>20</v>
       </c>
       <c r="D14" s="25">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E14" s="25">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F14" s="25">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G14" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
@@ -1988,7 +2124,7 @@
       <c r="G31" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="AI2:AP2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
@@ -2004,40 +2140,41 @@
     <mergeCell ref="H3:R3"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="V3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:BO31">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="16" priority="3">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="15" priority="4">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="13" priority="6">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="12" priority="7">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:BO32">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
